--- a/Books/자금수지표_v1_250820.xlsx
+++ b/Books/자금수지표_v1_250820.xlsx
@@ -9,6 +9,7 @@
     <sheet name="원장데이터_BS계정" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="원장데이터_PL" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PL계정" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -132,7 +133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -151,6 +152,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6186,4 +6188,698 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>계정코드</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>계정명</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2022년_전기이월</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2023년_전기이월</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2024년_전기이월</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022년_01월</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2022년_02월</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2022년_03월</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2022년_04월</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2022년_05월</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2022년_06월</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2022년_07월</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2022년_08월</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2022년_09월</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2022년_10월</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2022년_11월</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2022년_12월</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2023년_01월</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2023년_02월</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2023년_03월</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2023년_04월</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2023년_05월</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2023년_06월</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2023년_07월</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2023년_08월</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2023년_09월</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2023년_10월</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2023년_11월</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2023년_12월</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2024년_01월</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2024년_02월</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>2024년_03월</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>2024년_04월</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>2024년_05월</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>2024년_06월</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2024년_07월</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2024년_08월</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>2024년_09월</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>2024년_10월</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>2024년_11월</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>2024년_12월</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>손익(SUMMARY)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>처리제외</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="12" t="n"/>
+      <c r="Q2" s="12" t="n"/>
+      <c r="R2" s="12" t="n"/>
+      <c r="S2" s="12" t="n"/>
+      <c r="T2" s="12" t="n"/>
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="12" t="n"/>
+      <c r="W2" s="12" t="n"/>
+      <c r="X2" s="12" t="n"/>
+      <c r="Y2" s="12" t="n"/>
+      <c r="Z2" s="12" t="n"/>
+      <c r="AA2" s="12" t="n"/>
+      <c r="AB2" s="12" t="n"/>
+      <c r="AC2" s="12" t="n"/>
+      <c r="AD2" s="12" t="n"/>
+      <c r="AE2" s="12" t="n"/>
+      <c r="AF2" s="12" t="n"/>
+      <c r="AG2" s="12" t="n"/>
+      <c r="AH2" s="12" t="n"/>
+      <c r="AI2" s="12" t="n"/>
+      <c r="AJ2" s="12" t="n"/>
+      <c r="AK2" s="12" t="n"/>
+      <c r="AL2" s="12" t="n"/>
+      <c r="AM2" s="12" t="n"/>
+      <c r="AN2" s="12" t="n"/>
+      <c r="AO2" s="12" t="n"/>
+      <c r="AP2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>80200</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>직원급여</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="n"/>
+      <c r="F3" t="n">
+        <v>76500230</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86950002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>84950002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>84950002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>84950002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>84950002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>84950002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>83950002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>83950002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>73066669</v>
+      </c>
+      <c r="P3" t="n">
+        <v>73066669</v>
+      </c>
+      <c r="Q3" s="12" t="n"/>
+      <c r="R3" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3833334</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3833334</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3833334</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9553882</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9833334</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9833334</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9833334</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9966667</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9966667</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9966667</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9966667</v>
+      </c>
+      <c r="AD3" s="12" t="n"/>
+      <c r="AE3" t="n">
+        <v>103532499</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>103532499</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>103532499</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>72399167</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>60782500</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>52782500</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>150189265</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>70082499</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>64082499</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>66473209</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>66999166</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-464484430</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>80800</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>퇴직급여</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="n"/>
+      <c r="P4" t="n">
+        <v>2501712</v>
+      </c>
+      <c r="Q4" s="12" t="n"/>
+      <c r="AD4" s="12" t="n"/>
+      <c r="AP4" t="n">
+        <v>60235100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>81100</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" t="n">
+        <v>63637</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7273</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48182</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21273</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31819</v>
+      </c>
+      <c r="L5" t="n">
+        <v>140000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>377000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>98346</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5637</v>
+      </c>
+      <c r="P5" t="n">
+        <v>107000</v>
+      </c>
+      <c r="Q5" s="12" t="n"/>
+      <c r="R5" t="n">
+        <v>400000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2734380</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3366690</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3508590</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1871490</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1890060</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2723250</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2703050</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4543910</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4164370</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3900900</v>
+      </c>
+      <c r="AD5" s="12" t="n"/>
+      <c r="AE5" t="n">
+        <v>7171410</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5822070</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6297925</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5240885</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9639910</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4423540</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1785600</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2364710</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>5246410</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3244227</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3891320</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3786654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>81200</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>여비교통비</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30600</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19800</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12700</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>88200</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15300</v>
+      </c>
+      <c r="N6" t="n">
+        <v>55965</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6300</v>
+      </c>
+      <c r="Q6" s="12" t="n"/>
+      <c r="R6" t="n">
+        <v>802000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>101500</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-23700</v>
+      </c>
+      <c r="U6" t="n">
+        <v>212900</v>
+      </c>
+      <c r="V6" t="n">
+        <v>413000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>330400</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1410000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>125200</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-7200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-16800</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8200</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>110000</v>
+      </c>
+      <c r="AD6" s="12" t="n"/>
+      <c r="AE6" t="n">
+        <v>2018600</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1860700</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4862718</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3258165</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17039753</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2753500</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3904740</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1085300</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2415980</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2669195</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1548170</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4464336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>